--- a/Section05/FlowPoint/FlowPoint.xlsx
+++ b/Section05/FlowPoint/FlowPoint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\Section05\FlowPoint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956E805A-0DBE-414C-87CE-0BAD20ABA9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C723BA-DB6A-42EC-8D4C-2DC053A724C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3D12139-B031-454A-A700-79DFBBF4E255}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>LTWBBudykoComposite</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>LTWBDekopNeutral</t>
+  </si>
+  <si>
+    <t>LTWBTurcComposite</t>
+  </si>
+  <si>
+    <t>LTWBTurcNina</t>
+  </si>
+  <si>
+    <t>LTWBTurcNino</t>
+  </si>
+  <si>
+    <t>LTWBTurcNeutral</t>
   </si>
 </sst>
 </file>
@@ -421,13 +433,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313DADB6-B301-438B-8948-35009304555E}">
-  <dimension ref="B2:J23"/>
+  <dimension ref="B2:N23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3:J23"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -442,10 +454,14 @@
     <col min="8" max="8" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -473,8 +489,20 @@
       <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -510,8 +538,24 @@
         <f xml:space="preserve"> 0.37332 + 0.01305*B3</f>
         <v>0.37331999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K3" s="1">
+        <f xml:space="preserve"> 0.37412 + 0.01189*B3</f>
+        <v>0.37412000000000001</v>
+      </c>
+      <c r="L3" s="1">
+        <f xml:space="preserve"> 0.4466 + 0.01609*B3</f>
+        <v>0.4466</v>
+      </c>
+      <c r="M3" s="1">
+        <f xml:space="preserve"> 0.28372 + 0.0076*B3</f>
+        <v>0.28372000000000003</v>
+      </c>
+      <c r="N3" s="1">
+        <f xml:space="preserve"> 0.38552 + 0.01222*B3</f>
+        <v>0.38551999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <v>500</v>
       </c>
@@ -547,8 +591,24 @@
         <f t="shared" ref="J4:J23" si="7" xml:space="preserve"> 0.37332 + 0.01305*B4</f>
         <v>6.89832</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K23" si="8" xml:space="preserve"> 0.37412 + 0.01189*B4</f>
+        <v>6.3191199999999998</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L23" si="9" xml:space="preserve"> 0.4466 + 0.01609*B4</f>
+        <v>8.4916</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M23" si="10" xml:space="preserve"> 0.28372 + 0.0076*B4</f>
+        <v>4.0837199999999996</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N23" si="11" xml:space="preserve"> 0.38552 + 0.01222*B4</f>
+        <v>6.49552</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>1000</v>
       </c>
@@ -584,8 +644,24 @@
         <f t="shared" si="7"/>
         <v>13.42332</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K5" s="1">
+        <f t="shared" si="8"/>
+        <v>12.264119999999998</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="9"/>
+        <v>16.5366</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="10"/>
+        <v>7.8837199999999994</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="11"/>
+        <v>12.60552</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>1500</v>
       </c>
@@ -621,8 +697,24 @@
         <f t="shared" si="7"/>
         <v>19.948320000000002</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="1">
+        <f t="shared" si="8"/>
+        <v>18.209120000000002</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="9"/>
+        <v>24.581600000000002</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="10"/>
+        <v>11.683720000000001</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="11"/>
+        <v>18.715519999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>2000</v>
       </c>
@@ -658,8 +750,24 @@
         <f t="shared" si="7"/>
         <v>26.473320000000001</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K7" s="1">
+        <f t="shared" si="8"/>
+        <v>24.154119999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="9"/>
+        <v>32.626599999999996</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="10"/>
+        <v>15.48372</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="11"/>
+        <v>24.825520000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>2500</v>
       </c>
@@ -695,8 +803,24 @@
         <f t="shared" si="7"/>
         <v>32.99832</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K8" s="1">
+        <f t="shared" si="8"/>
+        <v>30.099119999999999</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="9"/>
+        <v>40.671599999999998</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="10"/>
+        <v>19.283719999999999</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="11"/>
+        <v>30.93552</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>3000</v>
       </c>
@@ -732,8 +856,24 @@
         <f t="shared" si="7"/>
         <v>39.523320000000005</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K9" s="1">
+        <f t="shared" si="8"/>
+        <v>36.044119999999999</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="9"/>
+        <v>48.7166</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="10"/>
+        <v>23.08372</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="11"/>
+        <v>37.045519999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>3500</v>
       </c>
@@ -769,8 +909,24 @@
         <f t="shared" si="7"/>
         <v>46.048320000000004</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K10" s="1">
+        <f t="shared" si="8"/>
+        <v>41.989119999999993</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="9"/>
+        <v>56.761599999999994</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="10"/>
+        <v>26.88372</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="11"/>
+        <v>43.155520000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>4000</v>
       </c>
@@ -806,8 +962,24 @@
         <f t="shared" si="7"/>
         <v>52.573320000000002</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K11" s="1">
+        <f t="shared" si="8"/>
+        <v>47.934119999999993</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="9"/>
+        <v>64.806600000000003</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="10"/>
+        <v>30.683719999999997</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="11"/>
+        <v>49.265520000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>4500</v>
       </c>
@@ -843,8 +1015,24 @@
         <f t="shared" si="7"/>
         <v>59.098320000000001</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K12" s="1">
+        <f t="shared" si="8"/>
+        <v>53.879119999999993</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="9"/>
+        <v>72.851600000000005</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="10"/>
+        <v>34.483720000000005</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="11"/>
+        <v>55.375520000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>5000</v>
       </c>
@@ -880,8 +1068,24 @@
         <f t="shared" si="7"/>
         <v>65.623320000000007</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K13" s="1">
+        <f t="shared" si="8"/>
+        <v>59.824119999999994</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="9"/>
+        <v>80.896600000000007</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="10"/>
+        <v>38.283720000000002</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="11"/>
+        <v>61.485520000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <v>5500</v>
       </c>
@@ -917,8 +1121,24 @@
         <f t="shared" si="7"/>
         <v>72.148320000000012</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K14" s="1">
+        <f t="shared" si="8"/>
+        <v>65.769120000000001</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="9"/>
+        <v>88.941600000000008</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="10"/>
+        <v>42.08372</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="11"/>
+        <v>67.595519999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>6000</v>
       </c>
@@ -954,8 +1174,24 @@
         <f t="shared" si="7"/>
         <v>78.673320000000018</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K15" s="1">
+        <f t="shared" si="8"/>
+        <v>71.714120000000008</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="9"/>
+        <v>96.98660000000001</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="10"/>
+        <v>45.883720000000004</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="11"/>
+        <v>73.705519999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>6500</v>
       </c>
@@ -991,8 +1227,24 @@
         <f t="shared" si="7"/>
         <v>85.19832000000001</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K16" s="1">
+        <f t="shared" si="8"/>
+        <v>77.659120000000001</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="9"/>
+        <v>105.03160000000001</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="10"/>
+        <v>49.683720000000001</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="11"/>
+        <v>79.815520000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>7000</v>
       </c>
@@ -1028,8 +1280,24 @@
         <f t="shared" si="7"/>
         <v>91.723320000000015</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K17" s="1">
+        <f t="shared" si="8"/>
+        <v>83.604119999999995</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="9"/>
+        <v>113.0766</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="10"/>
+        <v>53.483720000000005</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="11"/>
+        <v>85.925520000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <v>7500</v>
       </c>
@@ -1065,8 +1333,24 @@
         <f t="shared" si="7"/>
         <v>98.248320000000007</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K18" s="1">
+        <f t="shared" si="8"/>
+        <v>89.549120000000002</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="9"/>
+        <v>121.1216</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="10"/>
+        <v>57.283720000000002</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="11"/>
+        <v>92.035520000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <v>8000</v>
       </c>
@@ -1102,8 +1386,24 @@
         <f t="shared" si="7"/>
         <v>104.77332000000001</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K19" s="1">
+        <f t="shared" si="8"/>
+        <v>95.494119999999995</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="9"/>
+        <v>129.16659999999999</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="10"/>
+        <v>61.08372</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="11"/>
+        <v>98.145520000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <v>8500</v>
       </c>
@@ -1112,7 +1412,7 @@
         <v>135.53263000000001</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" ref="D20:D23" si="8">0.44716 + 0.02044 *B20</f>
+        <f t="shared" ref="D20:D23" si="12">0.44716 + 0.02044 *B20</f>
         <v>174.18716000000001</v>
       </c>
       <c r="E20" s="1">
@@ -1139,8 +1439,24 @@
         <f t="shared" si="7"/>
         <v>111.29832000000002</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K20" s="1">
+        <f t="shared" si="8"/>
+        <v>101.43912</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="9"/>
+        <v>137.2116</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="10"/>
+        <v>64.883719999999997</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="11"/>
+        <v>104.25552</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <v>9000</v>
       </c>
@@ -1149,7 +1465,7 @@
         <v>143.48263</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>184.40716</v>
       </c>
       <c r="E21" s="1">
@@ -1176,8 +1492,24 @@
         <f t="shared" si="7"/>
         <v>117.82332000000001</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K21" s="1">
+        <f t="shared" si="8"/>
+        <v>107.38412</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="9"/>
+        <v>145.25659999999999</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="10"/>
+        <v>68.683720000000008</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="11"/>
+        <v>110.36552</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <v>9500</v>
       </c>
@@ -1186,7 +1518,7 @@
         <v>151.43263000000002</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>194.62716</v>
       </c>
       <c r="E22" s="1">
@@ -1213,8 +1545,24 @@
         <f t="shared" si="7"/>
         <v>124.34832000000002</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K22" s="1">
+        <f t="shared" si="8"/>
+        <v>113.32912</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="9"/>
+        <v>153.30159999999998</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="10"/>
+        <v>72.483720000000005</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="11"/>
+        <v>116.47552</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <v>10000</v>
       </c>
@@ -1223,7 +1571,7 @@
         <v>159.38263000000001</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>204.84716</v>
       </c>
       <c r="E23" s="1">
@@ -1249,9 +1597,26 @@
       <c r="J23" s="1">
         <f t="shared" si="7"/>
         <v>130.87332000000001</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="8"/>
+        <v>119.27412</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="9"/>
+        <v>161.3466</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="10"/>
+        <v>76.283720000000002</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="11"/>
+        <v>122.58552</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Section05/FlowPoint/FlowPoint.xlsx
+++ b/Section05/FlowPoint/FlowPoint.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\Section05\FlowPoint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C723BA-DB6A-42EC-8D4C-2DC053A724C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F0C97D-D102-4F0C-A3A6-55CB84147592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3D12139-B031-454A-A700-79DFBBF4E255}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="A vs. Qm" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -104,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -112,13 +112,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -134,6 +207,6313 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Valores característicos de caudal medio Compuesto en función del área de aportación</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14130833333333334"/>
+          <c:y val="7.114583333333333E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18861423611111111"/>
+          <c:y val="0.18764351851851852"/>
+          <c:w val="0.78366736111111113"/>
+          <c:h val="0.52605972222222219"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'A vs. Qm'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LTWBBudykoComposite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$C$3:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.38263000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.33263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.282630000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.23263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.182630000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.132629999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.082630000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.032630000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.98263</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.932630000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79.882630000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87.832630000000009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95.782630000000012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>103.73263000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>111.68263000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>119.63263000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>127.58263000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135.53263000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>143.48263</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>151.43263000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159.38263000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C425-4FAA-90C8-C7BD6049979E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'A vs. Qm'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LTWBDekopComposite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$G$3:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.36493999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8249399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.284940000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.74494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.204940000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.664939999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.124939999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.584939999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.044939999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.504939999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.964939999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.424940000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77.88494</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84.344939999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90.804940000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>97.264939999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>103.72494</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110.18494</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>116.64493999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>123.10494</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>129.56493999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C425-4FAA-90C8-C7BD6049979E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'A vs. Qm'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LTWBTurcComposite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$K$3:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.37412000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3191199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.264119999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.209120000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.154119999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.099119999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.044119999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.989119999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.934119999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.879119999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.824119999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.769120000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.714120000000008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>77.659120000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83.604119999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89.549120000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.494119999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>101.43912</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>107.38412</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>113.32912</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>119.27412</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C425-4FAA-90C8-C7BD6049979E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1167755376"/>
+        <c:axId val="1167749136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1167755376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Area, km²</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49346319444444436"/>
+              <c:y val="0.80744837962962968"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1167749136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="500"/>
+        <c:minorUnit val="500"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1167749136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="220"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Caudal medio, m³/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1167755376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.5496626984126981E-2"/>
+          <c:y val="0.86049351851851852"/>
+          <c:w val="0.96732685185185185"/>
+          <c:h val="0.12539513888888887"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Valores característicos de caudal medio La Niña en función del área de aportación</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14130833333333334"/>
+          <c:y val="7.114583333333333E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18861423611111111"/>
+          <c:y val="0.18764351851851852"/>
+          <c:w val="0.78366736111111113"/>
+          <c:h val="0.52605972222222219"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'A vs. Qm'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LTWBBudykoNina</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$D$3:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.44716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.667160000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.887160000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.10716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.327159999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.547159999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.767159999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.987160000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.207160000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.427160000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102.64716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>112.86716</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>123.08716</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133.30715999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>143.52716000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>153.74716000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>163.96716000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>174.18716000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>184.40716</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>194.62716</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>204.84716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C58B-4BC7-9F6E-A89599EF7A8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'A vs. Qm'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LTWBDekopoNina</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$H$3:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.43502000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9500200000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.465020000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.980020000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.495020000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.010020000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.525020000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.040019999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.555019999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.07002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85.58502</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94.100020000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>102.61502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>111.13001999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119.64501999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.16002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136.67502000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>145.19002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>153.70502000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>162.22002000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>170.73502000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C58B-4BC7-9F6E-A89599EF7A8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'A vs. Qm'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LTWBTurcNina</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$L$3:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.4466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.5366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.581600000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.626599999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.671599999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.7166</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.761599999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.806600000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.851600000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.896600000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88.941600000000008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96.98660000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>105.03160000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>113.0766</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>121.1216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>129.16659999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>137.2116</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>145.25659999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>153.30159999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>161.3466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C58B-4BC7-9F6E-A89599EF7A8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1167755376"/>
+        <c:axId val="1167749136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1167755376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Area, km²</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49346319444444436"/>
+              <c:y val="0.80744837962962968"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1167749136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="500"/>
+        <c:minorUnit val="500"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1167749136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="220"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Caudal medio, m³/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1167755376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7811419753086437E-2"/>
+          <c:y val="0.86049351851851852"/>
+          <c:w val="0.75957993827160497"/>
+          <c:h val="0.12539513888888887"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Valores característicos de caudal medio El Niño en función del área de aportación</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14130833333333334"/>
+          <c:y val="7.114583333333333E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18861423611111111"/>
+          <c:y val="0.18764351851851852"/>
+          <c:w val="0.78366736111111113"/>
+          <c:h val="0.52605972222222219"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'A vs. Qm'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LTWBBudykoNino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$E$3:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.29554999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7505500000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.205550000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.660549999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.115549999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.570549999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.025549999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.480549999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43.935549999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.390549999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.845549999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.300549999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.755549999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71.210549999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76.665549999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82.120550000000009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.575550000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>93.030550000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98.485550000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103.94055</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>109.39555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60F9-42A0-9B3D-44E2B57D36D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'A vs. Qm'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LTWBDekopNino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$I$3:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.27466000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5546600000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8346600000000013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.114660000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.394660000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.674659999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.954660000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.234660000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.514659999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.794659999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.074659999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.354659999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.634659999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55.914659999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.194659999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64.47466</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>68.754660000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>73.034660000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77.314659999999989</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81.59465999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85.874659999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-60F9-42A0-9B3D-44E2B57D36D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'A vs. Qm'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LTWBTurcNino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$M$3:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.28372000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0837199999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8837199999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.683720000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.48372</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.283719999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.08372</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.88372</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.683719999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.483720000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.283720000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.08372</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45.883720000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.683720000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53.483720000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57.283720000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61.08372</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64.883719999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68.683720000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>72.483720000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76.283720000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-60F9-42A0-9B3D-44E2B57D36D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1167755376"/>
+        <c:axId val="1167749136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1167755376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Area, km²</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49346319444444436"/>
+              <c:y val="0.80744837962962968"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1167749136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="500"/>
+        <c:minorUnit val="500"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1167749136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="220"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Caudal medio, m³/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1167755376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14092870370370369"/>
+          <c:y val="0.86049351851851852"/>
+          <c:w val="0.75566018518518518"/>
+          <c:h val="0.12539513888888887"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Valores característicos de caudal medio Neutro en función del área de aportación</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14130833333333334"/>
+          <c:y val="7.114583333333333E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18861423611111111"/>
+          <c:y val="0.18764351851851852"/>
+          <c:w val="0.78366736111111113"/>
+          <c:h val="0.52605972222222219"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'A vs. Qm'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LTWBBudykoNeutral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$F$3:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.39150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4064999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.421499999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.436499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.451499999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.466499999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.481499999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.496499999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.511499999999984</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.526499999999984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.541499999999985</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88.556499999999986</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96.571499999999986</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>104.58649999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112.60149999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120.61649999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128.63149999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>136.6465</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>144.66149999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>152.6765</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>160.69149999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-588A-43DB-93C9-7BCBF822DC4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'A vs. Qm'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LTWBDekopNeutral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$J$3:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.37331999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.89832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.42332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.948320000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.473320000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.99832</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.523320000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.048320000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.573320000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.098320000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.623320000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72.148320000000012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.673320000000018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85.19832000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91.723320000000015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>98.248320000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>104.77332000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>111.29832000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>117.82332000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>124.34832000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>130.87332000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-588A-43DB-93C9-7BCBF822DC4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'A vs. Qm'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LTWBTurcNeutral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'A vs. Qm'!$N$3:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.38551999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.49552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.60552</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.715519999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.825520000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.93552</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.045519999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.155520000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.265520000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.375520000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.485520000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.595519999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73.705519999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>79.815520000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85.925520000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92.035520000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>98.145520000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>104.25552</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110.36552</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>116.47552</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>122.58552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-588A-43DB-93C9-7BCBF822DC4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1167755376"/>
+        <c:axId val="1167749136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1167755376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Area, km²</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49346319444444436"/>
+              <c:y val="0.80744837962962968"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1167749136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="500"/>
+        <c:minorUnit val="500"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1167749136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="220"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Caudal medio, m³/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1167755376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14092870370370369"/>
+          <c:y val="0.86049351851851852"/>
+          <c:w val="0.75566018518518518"/>
+          <c:h val="0.12539513888888887"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>92785</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>192299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>423933</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>31739</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A738B03D-7273-52D6-23C3-5DB731ED57EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>62460</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>75661</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C25E9D-9D28-469D-9C7B-BBADF19E4F95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>62285</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>48701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>440479</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>101503</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A6E82D-BA81-45C8-94C0-2DF6C9D646E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>546321</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>41412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>130046</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>94214</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF1DF101-DC7D-4814-8104-7E985B5BC3C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,1182 +6815,1174 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313DADB6-B301-438B-8948-35009304555E}">
   <dimension ref="B2:N23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:14" s="3" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="1">
+      <c r="B3" s="7">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <f xml:space="preserve"> 0.38263 + 0.0159*B3</f>
         <v>0.38263000000000003</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <f>0.44716 + 0.02044 *B3</f>
         <v>0.44716</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <f xml:space="preserve"> 0.29555 + 0.01091*B3</f>
         <v>0.29554999999999998</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <f xml:space="preserve"> 0.3915 + 0.01603*B3</f>
         <v>0.39150000000000001</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="7">
         <f>0.36494 + 0.01292*B3</f>
         <v>0.36493999999999999</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="7">
         <f xml:space="preserve"> 0.43502 + 0.01703*B3</f>
         <v>0.43502000000000002</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="7">
         <f xml:space="preserve"> 0.27466 + 0.00856*B3</f>
         <v>0.27466000000000002</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="7">
         <f xml:space="preserve"> 0.37332 + 0.01305*B3</f>
         <v>0.37331999999999999</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="7">
         <f xml:space="preserve"> 0.37412 + 0.01189*B3</f>
         <v>0.37412000000000001</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="7">
         <f xml:space="preserve"> 0.4466 + 0.01609*B3</f>
         <v>0.4466</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="7">
         <f xml:space="preserve"> 0.28372 + 0.0076*B3</f>
         <v>0.28372000000000003</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="7">
         <f xml:space="preserve"> 0.38552 + 0.01222*B3</f>
         <v>0.38551999999999997</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>500</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <f t="shared" ref="C4:C23" si="0" xml:space="preserve"> 0.38263 + 0.0159*B4</f>
         <v>8.33263</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="6">
         <f t="shared" ref="D4:D19" si="1">0.44716 + 0.02044 *B4</f>
         <v>10.667160000000001</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <f t="shared" ref="E4:E23" si="2" xml:space="preserve"> 0.29555 + 0.01091*B4</f>
         <v>5.7505500000000005</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <f t="shared" ref="F4:F23" si="3" xml:space="preserve"> 0.3915 + 0.01603*B4</f>
         <v>8.4064999999999994</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="6">
         <f t="shared" ref="G4:G23" si="4">0.36494 + 0.01292*B4</f>
         <v>6.8249399999999998</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="6">
         <f t="shared" ref="H4:H23" si="5" xml:space="preserve"> 0.43502 + 0.01703*B4</f>
         <v>8.9500200000000003</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="6">
         <f t="shared" ref="I4:I23" si="6" xml:space="preserve"> 0.27466 + 0.00856*B4</f>
         <v>4.5546600000000002</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="6">
         <f t="shared" ref="J4:J23" si="7" xml:space="preserve"> 0.37332 + 0.01305*B4</f>
         <v>6.89832</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="6">
         <f t="shared" ref="K4:K23" si="8" xml:space="preserve"> 0.37412 + 0.01189*B4</f>
         <v>6.3191199999999998</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="6">
         <f t="shared" ref="L4:L23" si="9" xml:space="preserve"> 0.4466 + 0.01609*B4</f>
         <v>8.4916</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="6">
         <f t="shared" ref="M4:M23" si="10" xml:space="preserve"> 0.28372 + 0.0076*B4</f>
         <v>4.0837199999999996</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="6">
         <f t="shared" ref="N4:N23" si="11" xml:space="preserve"> 0.38552 + 0.01222*B4</f>
         <v>6.49552</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>1000</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <f t="shared" si="0"/>
         <v>16.282630000000001</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <f t="shared" si="1"/>
         <v>20.887160000000002</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <f t="shared" si="2"/>
         <v>11.205550000000001</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <f t="shared" si="3"/>
         <v>16.421499999999998</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="6">
         <f t="shared" si="4"/>
         <v>13.284940000000001</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="6">
         <f t="shared" si="5"/>
         <v>17.465020000000003</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="6">
         <f t="shared" si="6"/>
         <v>8.8346600000000013</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="6">
         <f t="shared" si="7"/>
         <v>13.42332</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="6">
         <f t="shared" si="8"/>
         <v>12.264119999999998</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="6">
         <f t="shared" si="9"/>
         <v>16.5366</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="6">
         <f t="shared" si="10"/>
         <v>7.8837199999999994</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="6">
         <f t="shared" si="11"/>
         <v>12.60552</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>1500</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <f t="shared" si="0"/>
         <v>24.23263</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="6">
         <f t="shared" si="1"/>
         <v>31.10716</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <f t="shared" si="2"/>
         <v>16.660549999999997</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <f t="shared" si="3"/>
         <v>24.436499999999999</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="6">
         <f t="shared" si="4"/>
         <v>19.74494</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="6">
         <f t="shared" si="5"/>
         <v>25.980020000000003</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="6">
         <f t="shared" si="6"/>
         <v>13.114660000000001</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="6">
         <f t="shared" si="7"/>
         <v>19.948320000000002</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="6">
         <f t="shared" si="8"/>
         <v>18.209120000000002</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="6">
         <f t="shared" si="9"/>
         <v>24.581600000000002</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="6">
         <f t="shared" si="10"/>
         <v>11.683720000000001</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="6">
         <f t="shared" si="11"/>
         <v>18.715519999999998</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>2000</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <f t="shared" si="0"/>
         <v>32.182630000000003</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="6">
         <f t="shared" si="1"/>
         <v>41.327159999999999</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
         <f t="shared" si="2"/>
         <v>22.115549999999999</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="6">
         <f t="shared" si="3"/>
         <v>32.451499999999996</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="6">
         <f t="shared" si="4"/>
         <v>26.204940000000001</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="6">
         <f t="shared" si="5"/>
         <v>34.495020000000004</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="6">
         <f t="shared" si="6"/>
         <v>17.394660000000002</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="6">
         <f t="shared" si="7"/>
         <v>26.473320000000001</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="6">
         <f t="shared" si="8"/>
         <v>24.154119999999999</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="6">
         <f t="shared" si="9"/>
         <v>32.626599999999996</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="6">
         <f t="shared" si="10"/>
         <v>15.48372</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="6">
         <f t="shared" si="11"/>
         <v>24.825520000000001</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>2500</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <f t="shared" si="0"/>
         <v>40.132629999999999</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <f t="shared" si="1"/>
         <v>51.547159999999998</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <f t="shared" si="2"/>
         <v>27.570549999999997</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6">
         <f t="shared" si="3"/>
         <v>40.466499999999996</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="6">
         <f t="shared" si="4"/>
         <v>32.664939999999994</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="6">
         <f t="shared" si="5"/>
         <v>43.010020000000004</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="6">
         <f t="shared" si="6"/>
         <v>21.674659999999999</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="6">
         <f t="shared" si="7"/>
         <v>32.99832</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="6">
         <f t="shared" si="8"/>
         <v>30.099119999999999</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="6">
         <f t="shared" si="9"/>
         <v>40.671599999999998</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="6">
         <f t="shared" si="10"/>
         <v>19.283719999999999</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="6">
         <f t="shared" si="11"/>
         <v>30.93552</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>3000</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <f t="shared" si="0"/>
         <v>48.082630000000002</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="6">
         <f t="shared" si="1"/>
         <v>61.767159999999997</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
         <f t="shared" si="2"/>
         <v>33.025549999999996</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="6">
         <f t="shared" si="3"/>
         <v>48.481499999999997</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="6">
         <f t="shared" si="4"/>
         <v>39.124939999999995</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="6">
         <f t="shared" si="5"/>
         <v>51.525020000000005</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="6">
         <f t="shared" si="6"/>
         <v>25.954660000000001</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="6">
         <f t="shared" si="7"/>
         <v>39.523320000000005</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="6">
         <f t="shared" si="8"/>
         <v>36.044119999999999</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="6">
         <f t="shared" si="9"/>
         <v>48.7166</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="6">
         <f t="shared" si="10"/>
         <v>23.08372</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="6">
         <f t="shared" si="11"/>
         <v>37.045519999999996</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>3500</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <f t="shared" si="0"/>
         <v>56.032630000000005</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="6">
         <f t="shared" si="1"/>
         <v>71.987160000000003</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6">
         <f t="shared" si="2"/>
         <v>38.480549999999994</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="6">
         <f t="shared" si="3"/>
         <v>56.496499999999997</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="6">
         <f t="shared" si="4"/>
         <v>45.584939999999996</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="6">
         <f t="shared" si="5"/>
         <v>60.040019999999998</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="6">
         <f t="shared" si="6"/>
         <v>30.234660000000002</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="6">
         <f t="shared" si="7"/>
         <v>46.048320000000004</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="6">
         <f t="shared" si="8"/>
         <v>41.989119999999993</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="6">
         <f t="shared" si="9"/>
         <v>56.761599999999994</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="6">
         <f t="shared" si="10"/>
         <v>26.88372</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="6">
         <f t="shared" si="11"/>
         <v>43.155520000000003</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>4000</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
         <f t="shared" si="0"/>
         <v>63.98263</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="6">
         <f t="shared" si="1"/>
         <v>82.207160000000002</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
         <f t="shared" si="2"/>
         <v>43.935549999999999</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="6">
         <f t="shared" si="3"/>
         <v>64.511499999999984</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="6">
         <f t="shared" si="4"/>
         <v>52.044939999999997</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="6">
         <f t="shared" si="5"/>
         <v>68.555019999999999</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="6">
         <f t="shared" si="6"/>
         <v>34.514659999999999</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="6">
         <f t="shared" si="7"/>
         <v>52.573320000000002</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="6">
         <f t="shared" si="8"/>
         <v>47.934119999999993</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="6">
         <f t="shared" si="9"/>
         <v>64.806600000000003</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="6">
         <f t="shared" si="10"/>
         <v>30.683719999999997</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="6">
         <f t="shared" si="11"/>
         <v>49.265520000000002</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>4500</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6">
         <f t="shared" si="0"/>
         <v>71.932630000000003</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="6">
         <f t="shared" si="1"/>
         <v>92.427160000000001</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="6">
         <f t="shared" si="2"/>
         <v>49.390549999999998</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="6">
         <f t="shared" si="3"/>
         <v>72.526499999999984</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="6">
         <f t="shared" si="4"/>
         <v>58.504939999999991</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="6">
         <f t="shared" si="5"/>
         <v>77.07002</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="6">
         <f t="shared" si="6"/>
         <v>38.794659999999993</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="6">
         <f t="shared" si="7"/>
         <v>59.098320000000001</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="6">
         <f t="shared" si="8"/>
         <v>53.879119999999993</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="6">
         <f t="shared" si="9"/>
         <v>72.851600000000005</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="6">
         <f t="shared" si="10"/>
         <v>34.483720000000005</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="6">
         <f t="shared" si="11"/>
         <v>55.375520000000002</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>5000</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6">
         <f t="shared" si="0"/>
         <v>79.882630000000006</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="6">
         <f t="shared" si="1"/>
         <v>102.64716</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="6">
         <f t="shared" si="2"/>
         <v>54.845549999999996</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="6">
         <f t="shared" si="3"/>
         <v>80.541499999999985</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="6">
         <f t="shared" si="4"/>
         <v>64.964939999999999</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="6">
         <f t="shared" si="5"/>
         <v>85.58502</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="6">
         <f t="shared" si="6"/>
         <v>43.074659999999994</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="6">
         <f t="shared" si="7"/>
         <v>65.623320000000007</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="6">
         <f t="shared" si="8"/>
         <v>59.824119999999994</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="6">
         <f t="shared" si="9"/>
         <v>80.896600000000007</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="6">
         <f t="shared" si="10"/>
         <v>38.283720000000002</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="6">
         <f t="shared" si="11"/>
         <v>61.485520000000001</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>5500</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="6">
         <f t="shared" si="0"/>
         <v>87.832630000000009</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="6">
         <f t="shared" si="1"/>
         <v>112.86716</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="6">
         <f t="shared" si="2"/>
         <v>60.300549999999994</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="6">
         <f t="shared" si="3"/>
         <v>88.556499999999986</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="6">
         <f t="shared" si="4"/>
         <v>71.424940000000007</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="6">
         <f t="shared" si="5"/>
         <v>94.100020000000001</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="6">
         <f t="shared" si="6"/>
         <v>47.354659999999996</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="6">
         <f t="shared" si="7"/>
         <v>72.148320000000012</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="6">
         <f t="shared" si="8"/>
         <v>65.769120000000001</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="6">
         <f t="shared" si="9"/>
         <v>88.941600000000008</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="6">
         <f t="shared" si="10"/>
         <v>42.08372</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="6">
         <f t="shared" si="11"/>
         <v>67.595519999999993</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <v>6000</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="6">
         <f t="shared" si="0"/>
         <v>95.782630000000012</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="6">
         <f t="shared" si="1"/>
         <v>123.08716</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="6">
         <f t="shared" si="2"/>
         <v>65.755549999999999</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="6">
         <f t="shared" si="3"/>
         <v>96.571499999999986</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="6">
         <f t="shared" si="4"/>
         <v>77.88494</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="6">
         <f t="shared" si="5"/>
         <v>102.61502</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="6">
         <f t="shared" si="6"/>
         <v>51.634659999999997</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="6">
         <f t="shared" si="7"/>
         <v>78.673320000000018</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="6">
         <f t="shared" si="8"/>
         <v>71.714120000000008</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="6">
         <f t="shared" si="9"/>
         <v>96.98660000000001</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="6">
         <f t="shared" si="10"/>
         <v>45.883720000000004</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="6">
         <f t="shared" si="11"/>
         <v>73.705519999999993</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="1">
+      <c r="B16" s="6">
         <v>6500</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="6">
         <f t="shared" si="0"/>
         <v>103.73263000000001</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="6">
         <f t="shared" si="1"/>
         <v>133.30715999999998</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="6">
         <f t="shared" si="2"/>
         <v>71.210549999999998</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="6">
         <f t="shared" si="3"/>
         <v>104.58649999999999</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="6">
         <f t="shared" si="4"/>
         <v>84.344939999999994</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="6">
         <f t="shared" si="5"/>
         <v>111.13001999999999</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="6">
         <f t="shared" si="6"/>
         <v>55.914659999999998</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="6">
         <f t="shared" si="7"/>
         <v>85.19832000000001</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="6">
         <f t="shared" si="8"/>
         <v>77.659120000000001</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="6">
         <f t="shared" si="9"/>
         <v>105.03160000000001</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="6">
         <f t="shared" si="10"/>
         <v>49.683720000000001</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="6">
         <f t="shared" si="11"/>
         <v>79.815520000000006</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>7000</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="6">
         <f t="shared" si="0"/>
         <v>111.68263000000002</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="6">
         <f t="shared" si="1"/>
         <v>143.52716000000001</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="6">
         <f t="shared" si="2"/>
         <v>76.665549999999996</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="6">
         <f t="shared" si="3"/>
         <v>112.60149999999999</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="6">
         <f t="shared" si="4"/>
         <v>90.804940000000002</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="6">
         <f t="shared" si="5"/>
         <v>119.64501999999999</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="6">
         <f t="shared" si="6"/>
         <v>60.194659999999999</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="6">
         <f t="shared" si="7"/>
         <v>91.723320000000015</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="6">
         <f t="shared" si="8"/>
         <v>83.604119999999995</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="6">
         <f t="shared" si="9"/>
         <v>113.0766</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="6">
         <f t="shared" si="10"/>
         <v>53.483720000000005</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="6">
         <f t="shared" si="11"/>
         <v>85.925520000000006</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>7500</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="6">
         <f t="shared" si="0"/>
         <v>119.63263000000001</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="6">
         <f t="shared" si="1"/>
         <v>153.74716000000001</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="6">
         <f t="shared" si="2"/>
         <v>82.120550000000009</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="6">
         <f t="shared" si="3"/>
         <v>120.61649999999999</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="6">
         <f t="shared" si="4"/>
         <v>97.264939999999996</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="6">
         <f t="shared" si="5"/>
         <v>128.16002</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="6">
         <f t="shared" si="6"/>
         <v>64.47466</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="6">
         <f t="shared" si="7"/>
         <v>98.248320000000007</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="6">
         <f t="shared" si="8"/>
         <v>89.549120000000002</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="6">
         <f t="shared" si="9"/>
         <v>121.1216</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="6">
         <f t="shared" si="10"/>
         <v>57.283720000000002</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="6">
         <f t="shared" si="11"/>
         <v>92.035520000000005</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <v>8000</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="6">
         <f t="shared" si="0"/>
         <v>127.58263000000001</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="6">
         <f t="shared" si="1"/>
         <v>163.96716000000001</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="6">
         <f t="shared" si="2"/>
         <v>87.575550000000007</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="6">
         <f t="shared" si="3"/>
         <v>128.63149999999999</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="6">
         <f t="shared" si="4"/>
         <v>103.72494</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="6">
         <f t="shared" si="5"/>
         <v>136.67502000000002</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="6">
         <f t="shared" si="6"/>
         <v>68.754660000000001</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="6">
         <f t="shared" si="7"/>
         <v>104.77332000000001</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="6">
         <f t="shared" si="8"/>
         <v>95.494119999999995</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="6">
         <f t="shared" si="9"/>
         <v>129.16659999999999</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="6">
         <f t="shared" si="10"/>
         <v>61.08372</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="6">
         <f t="shared" si="11"/>
         <v>98.145520000000005</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>8500</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="6">
         <f t="shared" si="0"/>
         <v>135.53263000000001</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="6">
         <f t="shared" ref="D20:D23" si="12">0.44716 + 0.02044 *B20</f>
         <v>174.18716000000001</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="6">
         <f t="shared" si="2"/>
         <v>93.030550000000005</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="6">
         <f t="shared" si="3"/>
         <v>136.6465</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="6">
         <f t="shared" si="4"/>
         <v>110.18494</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="6">
         <f t="shared" si="5"/>
         <v>145.19002</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="6">
         <f t="shared" si="6"/>
         <v>73.034660000000002</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="6">
         <f t="shared" si="7"/>
         <v>111.29832000000002</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="6">
         <f t="shared" si="8"/>
         <v>101.43912</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="6">
         <f t="shared" si="9"/>
         <v>137.2116</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="6">
         <f t="shared" si="10"/>
         <v>64.883719999999997</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="6">
         <f t="shared" si="11"/>
         <v>104.25552</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <v>9000</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="6">
         <f t="shared" si="0"/>
         <v>143.48263</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="6">
         <f t="shared" si="12"/>
         <v>184.40716</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="6">
         <f t="shared" si="2"/>
         <v>98.485550000000003</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="6">
         <f t="shared" si="3"/>
         <v>144.66149999999999</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="6">
         <f t="shared" si="4"/>
         <v>116.64493999999999</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="6">
         <f t="shared" si="5"/>
         <v>153.70502000000002</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="6">
         <f t="shared" si="6"/>
         <v>77.314659999999989</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="6">
         <f t="shared" si="7"/>
         <v>117.82332000000001</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="6">
         <f t="shared" si="8"/>
         <v>107.38412</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="6">
         <f t="shared" si="9"/>
         <v>145.25659999999999</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="6">
         <f t="shared" si="10"/>
         <v>68.683720000000008</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="6">
         <f t="shared" si="11"/>
         <v>110.36552</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <v>9500</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="6">
         <f t="shared" si="0"/>
         <v>151.43263000000002</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="6">
         <f t="shared" si="12"/>
         <v>194.62716</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="6">
         <f t="shared" si="2"/>
         <v>103.94055</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="6">
         <f t="shared" si="3"/>
         <v>152.6765</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="6">
         <f t="shared" si="4"/>
         <v>123.10494</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="6">
         <f t="shared" si="5"/>
         <v>162.22002000000001</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="6">
         <f t="shared" si="6"/>
         <v>81.59465999999999</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="6">
         <f t="shared" si="7"/>
         <v>124.34832000000002</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="6">
         <f t="shared" si="8"/>
         <v>113.32912</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="6">
         <f t="shared" si="9"/>
         <v>153.30159999999998</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="6">
         <f t="shared" si="10"/>
         <v>72.483720000000005</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="6">
         <f t="shared" si="11"/>
         <v>116.47552</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B23" s="1">
+      <c r="B23" s="8">
         <v>10000</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="8">
         <f t="shared" si="0"/>
         <v>159.38263000000001</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="8">
         <f t="shared" si="12"/>
         <v>204.84716</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="8">
         <f t="shared" si="2"/>
         <v>109.39555</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="8">
         <f t="shared" si="3"/>
         <v>160.69149999999999</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="8">
         <f t="shared" si="4"/>
         <v>129.56493999999998</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="8">
         <f t="shared" si="5"/>
         <v>170.73502000000002</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="8">
         <f t="shared" si="6"/>
         <v>85.874659999999992</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="8">
         <f t="shared" si="7"/>
         <v>130.87332000000001</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="8">
         <f t="shared" si="8"/>
         <v>119.27412</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="8">
         <f t="shared" si="9"/>
         <v>161.3466</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="8">
         <f t="shared" si="10"/>
         <v>76.283720000000002</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="8">
         <f t="shared" si="11"/>
         <v>122.58552</v>
       </c>
@@ -1618,5 +7990,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Section05/FlowPoint/FlowPoint.xlsx
+++ b/Section05/FlowPoint/FlowPoint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\Section05\FlowPoint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F0C97D-D102-4F0C-A3A6-55CB84147592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892E719D-5664-4BBB-9C05-B59003FEFB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3D12139-B031-454A-A700-79DFBBF4E255}"/>
   </bookViews>
@@ -81,6 +81,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -168,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -190,6 +193,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -287,9 +299,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18861423611111111"/>
+          <c:x val="0.29399035607574647"/>
           <c:y val="0.18764351851851852"/>
-          <c:w val="0.78366736111111113"/>
+          <c:w val="0.68245017264578423"/>
           <c:h val="0.52605972222222219"/>
         </c:manualLayout>
       </c:layout>
@@ -410,7 +422,7 @@
             <c:numRef>
               <c:f>'A vs. Qm'!$C$3:$C$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.38263000000000003</c:v>
@@ -599,7 +611,7 @@
             <c:numRef>
               <c:f>'A vs. Qm'!$G$3:$G$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.36493999999999999</c:v>
@@ -788,7 +800,7 @@
             <c:numRef>
               <c:f>'A vs. Qm'!$K$3:$K$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.37412000000000001</c:v>
@@ -1062,7 +1074,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1269,9 +1281,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18861423611111111"/>
+          <c:x val="0.28548491281582405"/>
           <c:y val="0.18764351851851852"/>
-          <c:w val="0.78366736111111113"/>
+          <c:w val="0.69100932271933913"/>
           <c:h val="0.52605972222222219"/>
         </c:manualLayout>
       </c:layout>
@@ -1392,7 +1404,7 @@
             <c:numRef>
               <c:f>'A vs. Qm'!$D$3:$D$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.44716</c:v>
@@ -1581,7 +1593,7 @@
             <c:numRef>
               <c:f>'A vs. Qm'!$H$3:$H$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.43502000000000002</c:v>
@@ -1770,7 +1782,7 @@
             <c:numRef>
               <c:f>'A vs. Qm'!$L$3:$L$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.4466</c:v>
@@ -2044,7 +2056,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2251,9 +2263,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18861423611111111"/>
+          <c:x val="0.27340302847588122"/>
           <c:y val="0.18764351851851852"/>
-          <c:w val="0.78366736111111113"/>
+          <c:w val="0.70311945894500927"/>
           <c:h val="0.52605972222222219"/>
         </c:manualLayout>
       </c:layout>
@@ -2374,7 +2386,7 @@
             <c:numRef>
               <c:f>'A vs. Qm'!$E$3:$E$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.29554999999999998</c:v>
@@ -2563,7 +2575,7 @@
             <c:numRef>
               <c:f>'A vs. Qm'!$I$3:$I$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.27466000000000002</c:v>
@@ -2752,7 +2764,7 @@
             <c:numRef>
               <c:f>'A vs. Qm'!$M$3:$M$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.28372000000000003</c:v>
@@ -3026,7 +3038,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3233,9 +3245,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18861423611111111"/>
+          <c:x val="0.27768674847477504"/>
           <c:y val="0.18764351851851852"/>
-          <c:w val="0.78366736111111113"/>
+          <c:w val="0.69880434698772875"/>
           <c:h val="0.52605972222222219"/>
         </c:manualLayout>
       </c:layout>
@@ -3356,7 +3368,7 @@
             <c:numRef>
               <c:f>'A vs. Qm'!$F$3:$F$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.39150000000000001</c:v>
@@ -3545,7 +3557,7 @@
             <c:numRef>
               <c:f>'A vs. Qm'!$J$3:$J$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.37331999999999999</c:v>
@@ -3734,7 +3746,7 @@
             <c:numRef>
               <c:f>'A vs. Qm'!$N$3:$N$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.38551999999999997</c:v>
@@ -4008,7 +4020,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6366,151 +6378,126 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>92785</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>192299</xdr:rowOff>
+      <xdr:colOff>69925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>423933</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>564386</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>31739</xdr:rowOff>
+      <xdr:rowOff>71354</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="Group 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A738B03D-7273-52D6-23C3-5DB731ED57EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9B3CD4-FF60-0EFD-7DC0-981AE8051E22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>62460</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>75661</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C25E9D-9D28-469D-9C7B-BBADF19E4F95}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>62285</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>48701</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>440479</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>101503</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A6E82D-BA81-45C8-94C0-2DF6C9D646E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>546321</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>41412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>130046</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>94214</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF1DF101-DC7D-4814-8104-7E985B5BC3C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="69925" y="6090179"/>
+          <a:ext cx="13463701" cy="4336755"/>
+          <a:chOff x="69925" y="6090179"/>
+          <a:chExt cx="13463701" cy="4336755"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="2" name="Chart 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A738B03D-7273-52D6-23C3-5DB731ED57EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="69925" y="6090179"/>
+          <a:ext cx="3234368" cy="4320000"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="8" name="Chart 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C25E9D-9D28-469D-9C7B-BBADF19E4F95}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="3497580" y="6103620"/>
+          <a:ext cx="3241758" cy="4320001"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="9" name="Chart 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A6E82D-BA81-45C8-94C0-2DF6C9D646E4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="6912665" y="6091361"/>
+          <a:ext cx="3245659" cy="4320002"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="10" name="Chart 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF1DF101-DC7D-4814-8104-7E985B5BC3C4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="10292301" y="6106932"/>
+          <a:ext cx="3241325" cy="4320002"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6815,21 +6802,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313DADB6-B301-438B-8948-35009304555E}">
   <dimension ref="B2:N23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:N23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -6878,51 +6868,51 @@
       <c r="B3" s="7">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <f xml:space="preserve"> 0.38263 + 0.0159*B3</f>
         <v>0.38263000000000003</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="9">
         <f>0.44716 + 0.02044 *B3</f>
         <v>0.44716</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="9">
         <f xml:space="preserve"> 0.29555 + 0.01091*B3</f>
         <v>0.29554999999999998</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="9">
         <f xml:space="preserve"> 0.3915 + 0.01603*B3</f>
         <v>0.39150000000000001</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="9">
         <f>0.36494 + 0.01292*B3</f>
         <v>0.36493999999999999</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="9">
         <f xml:space="preserve"> 0.43502 + 0.01703*B3</f>
         <v>0.43502000000000002</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="9">
         <f xml:space="preserve"> 0.27466 + 0.00856*B3</f>
         <v>0.27466000000000002</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="9">
         <f xml:space="preserve"> 0.37332 + 0.01305*B3</f>
         <v>0.37331999999999999</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="9">
         <f xml:space="preserve"> 0.37412 + 0.01189*B3</f>
         <v>0.37412000000000001</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="9">
         <f xml:space="preserve"> 0.4466 + 0.01609*B3</f>
         <v>0.4466</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="9">
         <f xml:space="preserve"> 0.28372 + 0.0076*B3</f>
         <v>0.28372000000000003</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="9">
         <f xml:space="preserve"> 0.38552 + 0.01222*B3</f>
         <v>0.38551999999999997</v>
       </c>
@@ -6931,51 +6921,51 @@
       <c r="B4" s="6">
         <v>500</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <f t="shared" ref="C4:C23" si="0" xml:space="preserve"> 0.38263 + 0.0159*B4</f>
         <v>8.33263</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="10">
         <f t="shared" ref="D4:D19" si="1">0.44716 + 0.02044 *B4</f>
         <v>10.667160000000001</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="10">
         <f t="shared" ref="E4:E23" si="2" xml:space="preserve"> 0.29555 + 0.01091*B4</f>
         <v>5.7505500000000005</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="10">
         <f t="shared" ref="F4:F23" si="3" xml:space="preserve"> 0.3915 + 0.01603*B4</f>
         <v>8.4064999999999994</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="10">
         <f t="shared" ref="G4:G23" si="4">0.36494 + 0.01292*B4</f>
         <v>6.8249399999999998</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="10">
         <f t="shared" ref="H4:H23" si="5" xml:space="preserve"> 0.43502 + 0.01703*B4</f>
         <v>8.9500200000000003</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="10">
         <f t="shared" ref="I4:I23" si="6" xml:space="preserve"> 0.27466 + 0.00856*B4</f>
         <v>4.5546600000000002</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="10">
         <f t="shared" ref="J4:J23" si="7" xml:space="preserve"> 0.37332 + 0.01305*B4</f>
         <v>6.89832</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="10">
         <f t="shared" ref="K4:K23" si="8" xml:space="preserve"> 0.37412 + 0.01189*B4</f>
         <v>6.3191199999999998</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="10">
         <f t="shared" ref="L4:L23" si="9" xml:space="preserve"> 0.4466 + 0.01609*B4</f>
         <v>8.4916</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="10">
         <f t="shared" ref="M4:M23" si="10" xml:space="preserve"> 0.28372 + 0.0076*B4</f>
         <v>4.0837199999999996</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="10">
         <f t="shared" ref="N4:N23" si="11" xml:space="preserve"> 0.38552 + 0.01222*B4</f>
         <v>6.49552</v>
       </c>
@@ -6984,51 +6974,51 @@
       <c r="B5" s="6">
         <v>1000</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="10">
         <f t="shared" si="0"/>
         <v>16.282630000000001</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="10">
         <f t="shared" si="1"/>
         <v>20.887160000000002</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="10">
         <f t="shared" si="2"/>
         <v>11.205550000000001</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="10">
         <f t="shared" si="3"/>
         <v>16.421499999999998</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="10">
         <f t="shared" si="4"/>
         <v>13.284940000000001</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="10">
         <f t="shared" si="5"/>
         <v>17.465020000000003</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="10">
         <f t="shared" si="6"/>
         <v>8.8346600000000013</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="10">
         <f t="shared" si="7"/>
         <v>13.42332</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="10">
         <f t="shared" si="8"/>
         <v>12.264119999999998</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="10">
         <f t="shared" si="9"/>
         <v>16.5366</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="10">
         <f t="shared" si="10"/>
         <v>7.8837199999999994</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="10">
         <f t="shared" si="11"/>
         <v>12.60552</v>
       </c>
@@ -7037,51 +7027,51 @@
       <c r="B6" s="6">
         <v>1500</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
         <v>24.23263</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="10">
         <f t="shared" si="1"/>
         <v>31.10716</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="10">
         <f t="shared" si="2"/>
         <v>16.660549999999997</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="10">
         <f t="shared" si="3"/>
         <v>24.436499999999999</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="10">
         <f t="shared" si="4"/>
         <v>19.74494</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="10">
         <f t="shared" si="5"/>
         <v>25.980020000000003</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="10">
         <f t="shared" si="6"/>
         <v>13.114660000000001</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="10">
         <f t="shared" si="7"/>
         <v>19.948320000000002</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="10">
         <f t="shared" si="8"/>
         <v>18.209120000000002</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="10">
         <f t="shared" si="9"/>
         <v>24.581600000000002</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="10">
         <f t="shared" si="10"/>
         <v>11.683720000000001</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="10">
         <f t="shared" si="11"/>
         <v>18.715519999999998</v>
       </c>
@@ -7090,51 +7080,51 @@
       <c r="B7" s="6">
         <v>2000</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
         <v>32.182630000000003</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="10">
         <f t="shared" si="1"/>
         <v>41.327159999999999</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="10">
         <f t="shared" si="2"/>
         <v>22.115549999999999</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="10">
         <f t="shared" si="3"/>
         <v>32.451499999999996</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="10">
         <f t="shared" si="4"/>
         <v>26.204940000000001</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="10">
         <f t="shared" si="5"/>
         <v>34.495020000000004</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="10">
         <f t="shared" si="6"/>
         <v>17.394660000000002</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="10">
         <f t="shared" si="7"/>
         <v>26.473320000000001</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="10">
         <f t="shared" si="8"/>
         <v>24.154119999999999</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="10">
         <f t="shared" si="9"/>
         <v>32.626599999999996</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="10">
         <f t="shared" si="10"/>
         <v>15.48372</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="10">
         <f t="shared" si="11"/>
         <v>24.825520000000001</v>
       </c>
@@ -7143,51 +7133,51 @@
       <c r="B8" s="6">
         <v>2500</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
         <v>40.132629999999999</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="10">
         <f t="shared" si="1"/>
         <v>51.547159999999998</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="10">
         <f t="shared" si="2"/>
         <v>27.570549999999997</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="10">
         <f t="shared" si="3"/>
         <v>40.466499999999996</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="10">
         <f t="shared" si="4"/>
         <v>32.664939999999994</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="10">
         <f t="shared" si="5"/>
         <v>43.010020000000004</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="10">
         <f t="shared" si="6"/>
         <v>21.674659999999999</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="10">
         <f t="shared" si="7"/>
         <v>32.99832</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="10">
         <f t="shared" si="8"/>
         <v>30.099119999999999</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="10">
         <f t="shared" si="9"/>
         <v>40.671599999999998</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="10">
         <f t="shared" si="10"/>
         <v>19.283719999999999</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="10">
         <f t="shared" si="11"/>
         <v>30.93552</v>
       </c>
@@ -7196,51 +7186,51 @@
       <c r="B9" s="6">
         <v>3000</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="10">
         <f t="shared" si="0"/>
         <v>48.082630000000002</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="10">
         <f t="shared" si="1"/>
         <v>61.767159999999997</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="10">
         <f t="shared" si="2"/>
         <v>33.025549999999996</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="10">
         <f t="shared" si="3"/>
         <v>48.481499999999997</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="10">
         <f t="shared" si="4"/>
         <v>39.124939999999995</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="10">
         <f t="shared" si="5"/>
         <v>51.525020000000005</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="10">
         <f t="shared" si="6"/>
         <v>25.954660000000001</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="10">
         <f t="shared" si="7"/>
         <v>39.523320000000005</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="10">
         <f t="shared" si="8"/>
         <v>36.044119999999999</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="10">
         <f t="shared" si="9"/>
         <v>48.7166</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="10">
         <f t="shared" si="10"/>
         <v>23.08372</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="10">
         <f t="shared" si="11"/>
         <v>37.045519999999996</v>
       </c>
@@ -7249,51 +7239,51 @@
       <c r="B10" s="6">
         <v>3500</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
         <v>56.032630000000005</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="10">
         <f t="shared" si="1"/>
         <v>71.987160000000003</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="10">
         <f t="shared" si="2"/>
         <v>38.480549999999994</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="10">
         <f t="shared" si="3"/>
         <v>56.496499999999997</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="10">
         <f t="shared" si="4"/>
         <v>45.584939999999996</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="10">
         <f t="shared" si="5"/>
         <v>60.040019999999998</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="10">
         <f t="shared" si="6"/>
         <v>30.234660000000002</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="10">
         <f t="shared" si="7"/>
         <v>46.048320000000004</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="10">
         <f t="shared" si="8"/>
         <v>41.989119999999993</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="10">
         <f t="shared" si="9"/>
         <v>56.761599999999994</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="10">
         <f t="shared" si="10"/>
         <v>26.88372</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="10">
         <f t="shared" si="11"/>
         <v>43.155520000000003</v>
       </c>
@@ -7302,51 +7292,51 @@
       <c r="B11" s="6">
         <v>4000</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="10">
         <f t="shared" si="0"/>
         <v>63.98263</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="10">
         <f t="shared" si="1"/>
         <v>82.207160000000002</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="10">
         <f t="shared" si="2"/>
         <v>43.935549999999999</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="10">
         <f t="shared" si="3"/>
         <v>64.511499999999984</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="10">
         <f t="shared" si="4"/>
         <v>52.044939999999997</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="10">
         <f t="shared" si="5"/>
         <v>68.555019999999999</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="10">
         <f t="shared" si="6"/>
         <v>34.514659999999999</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="10">
         <f t="shared" si="7"/>
         <v>52.573320000000002</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="10">
         <f t="shared" si="8"/>
         <v>47.934119999999993</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="10">
         <f t="shared" si="9"/>
         <v>64.806600000000003</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="10">
         <f t="shared" si="10"/>
         <v>30.683719999999997</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="10">
         <f t="shared" si="11"/>
         <v>49.265520000000002</v>
       </c>
@@ -7355,51 +7345,51 @@
       <c r="B12" s="6">
         <v>4500</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="10">
         <f t="shared" si="0"/>
         <v>71.932630000000003</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="10">
         <f t="shared" si="1"/>
         <v>92.427160000000001</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="10">
         <f t="shared" si="2"/>
         <v>49.390549999999998</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="10">
         <f t="shared" si="3"/>
         <v>72.526499999999984</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="10">
         <f t="shared" si="4"/>
         <v>58.504939999999991</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="10">
         <f t="shared" si="5"/>
         <v>77.07002</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="10">
         <f t="shared" si="6"/>
         <v>38.794659999999993</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="10">
         <f t="shared" si="7"/>
         <v>59.098320000000001</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="10">
         <f t="shared" si="8"/>
         <v>53.879119999999993</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="10">
         <f t="shared" si="9"/>
         <v>72.851600000000005</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="10">
         <f t="shared" si="10"/>
         <v>34.483720000000005</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="10">
         <f t="shared" si="11"/>
         <v>55.375520000000002</v>
       </c>
@@ -7408,51 +7398,51 @@
       <c r="B13" s="6">
         <v>5000</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="10">
         <f t="shared" si="0"/>
         <v>79.882630000000006</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="10">
         <f t="shared" si="1"/>
         <v>102.64716</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="10">
         <f t="shared" si="2"/>
         <v>54.845549999999996</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="10">
         <f t="shared" si="3"/>
         <v>80.541499999999985</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="10">
         <f t="shared" si="4"/>
         <v>64.964939999999999</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="10">
         <f t="shared" si="5"/>
         <v>85.58502</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="10">
         <f t="shared" si="6"/>
         <v>43.074659999999994</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="10">
         <f t="shared" si="7"/>
         <v>65.623320000000007</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="10">
         <f t="shared" si="8"/>
         <v>59.824119999999994</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="10">
         <f t="shared" si="9"/>
         <v>80.896600000000007</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="10">
         <f t="shared" si="10"/>
         <v>38.283720000000002</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="10">
         <f t="shared" si="11"/>
         <v>61.485520000000001</v>
       </c>
@@ -7461,51 +7451,51 @@
       <c r="B14" s="6">
         <v>5500</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="10">
         <f t="shared" si="0"/>
         <v>87.832630000000009</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="10">
         <f t="shared" si="1"/>
         <v>112.86716</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="10">
         <f t="shared" si="2"/>
         <v>60.300549999999994</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="10">
         <f t="shared" si="3"/>
         <v>88.556499999999986</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="10">
         <f t="shared" si="4"/>
         <v>71.424940000000007</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="10">
         <f t="shared" si="5"/>
         <v>94.100020000000001</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="10">
         <f t="shared" si="6"/>
         <v>47.354659999999996</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="10">
         <f t="shared" si="7"/>
         <v>72.148320000000012</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="10">
         <f t="shared" si="8"/>
         <v>65.769120000000001</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="10">
         <f t="shared" si="9"/>
         <v>88.941600000000008</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="10">
         <f t="shared" si="10"/>
         <v>42.08372</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="10">
         <f t="shared" si="11"/>
         <v>67.595519999999993</v>
       </c>
@@ -7514,51 +7504,51 @@
       <c r="B15" s="6">
         <v>6000</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="10">
         <f t="shared" si="0"/>
         <v>95.782630000000012</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="10">
         <f t="shared" si="1"/>
         <v>123.08716</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="10">
         <f t="shared" si="2"/>
         <v>65.755549999999999</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="10">
         <f t="shared" si="3"/>
         <v>96.571499999999986</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="10">
         <f t="shared" si="4"/>
         <v>77.88494</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="10">
         <f t="shared" si="5"/>
         <v>102.61502</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="10">
         <f t="shared" si="6"/>
         <v>51.634659999999997</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="10">
         <f t="shared" si="7"/>
         <v>78.673320000000018</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="10">
         <f t="shared" si="8"/>
         <v>71.714120000000008</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="10">
         <f t="shared" si="9"/>
         <v>96.98660000000001</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="10">
         <f t="shared" si="10"/>
         <v>45.883720000000004</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="10">
         <f t="shared" si="11"/>
         <v>73.705519999999993</v>
       </c>
@@ -7567,51 +7557,51 @@
       <c r="B16" s="6">
         <v>6500</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="10">
         <f t="shared" si="0"/>
         <v>103.73263000000001</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="10">
         <f t="shared" si="1"/>
         <v>133.30715999999998</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="10">
         <f t="shared" si="2"/>
         <v>71.210549999999998</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="10">
         <f t="shared" si="3"/>
         <v>104.58649999999999</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="10">
         <f t="shared" si="4"/>
         <v>84.344939999999994</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="10">
         <f t="shared" si="5"/>
         <v>111.13001999999999</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="10">
         <f t="shared" si="6"/>
         <v>55.914659999999998</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="10">
         <f t="shared" si="7"/>
         <v>85.19832000000001</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="10">
         <f t="shared" si="8"/>
         <v>77.659120000000001</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="10">
         <f t="shared" si="9"/>
         <v>105.03160000000001</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="10">
         <f t="shared" si="10"/>
         <v>49.683720000000001</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="10">
         <f t="shared" si="11"/>
         <v>79.815520000000006</v>
       </c>
@@ -7620,51 +7610,51 @@
       <c r="B17" s="6">
         <v>7000</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="10">
         <f t="shared" si="0"/>
         <v>111.68263000000002</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="10">
         <f t="shared" si="1"/>
         <v>143.52716000000001</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="10">
         <f t="shared" si="2"/>
         <v>76.665549999999996</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="10">
         <f t="shared" si="3"/>
         <v>112.60149999999999</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="10">
         <f t="shared" si="4"/>
         <v>90.804940000000002</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="10">
         <f t="shared" si="5"/>
         <v>119.64501999999999</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="10">
         <f t="shared" si="6"/>
         <v>60.194659999999999</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="10">
         <f t="shared" si="7"/>
         <v>91.723320000000015</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="10">
         <f t="shared" si="8"/>
         <v>83.604119999999995</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="10">
         <f t="shared" si="9"/>
         <v>113.0766</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="10">
         <f t="shared" si="10"/>
         <v>53.483720000000005</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="10">
         <f t="shared" si="11"/>
         <v>85.925520000000006</v>
       </c>
@@ -7673,51 +7663,51 @@
       <c r="B18" s="6">
         <v>7500</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="10">
         <f t="shared" si="0"/>
         <v>119.63263000000001</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="10">
         <f t="shared" si="1"/>
         <v>153.74716000000001</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="10">
         <f t="shared" si="2"/>
         <v>82.120550000000009</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="10">
         <f t="shared" si="3"/>
         <v>120.61649999999999</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="10">
         <f t="shared" si="4"/>
         <v>97.264939999999996</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="10">
         <f t="shared" si="5"/>
         <v>128.16002</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="10">
         <f t="shared" si="6"/>
         <v>64.47466</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="10">
         <f t="shared" si="7"/>
         <v>98.248320000000007</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="10">
         <f t="shared" si="8"/>
         <v>89.549120000000002</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="10">
         <f t="shared" si="9"/>
         <v>121.1216</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="10">
         <f t="shared" si="10"/>
         <v>57.283720000000002</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="10">
         <f t="shared" si="11"/>
         <v>92.035520000000005</v>
       </c>
@@ -7726,51 +7716,51 @@
       <c r="B19" s="6">
         <v>8000</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="10">
         <f t="shared" si="0"/>
         <v>127.58263000000001</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="10">
         <f t="shared" si="1"/>
         <v>163.96716000000001</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="10">
         <f t="shared" si="2"/>
         <v>87.575550000000007</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="10">
         <f t="shared" si="3"/>
         <v>128.63149999999999</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="10">
         <f t="shared" si="4"/>
         <v>103.72494</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="10">
         <f t="shared" si="5"/>
         <v>136.67502000000002</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="10">
         <f t="shared" si="6"/>
         <v>68.754660000000001</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="10">
         <f t="shared" si="7"/>
         <v>104.77332000000001</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="10">
         <f t="shared" si="8"/>
         <v>95.494119999999995</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="10">
         <f t="shared" si="9"/>
         <v>129.16659999999999</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="10">
         <f t="shared" si="10"/>
         <v>61.08372</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="10">
         <f t="shared" si="11"/>
         <v>98.145520000000005</v>
       </c>
@@ -7779,51 +7769,51 @@
       <c r="B20" s="6">
         <v>8500</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="10">
         <f t="shared" si="0"/>
         <v>135.53263000000001</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="10">
         <f t="shared" ref="D20:D23" si="12">0.44716 + 0.02044 *B20</f>
         <v>174.18716000000001</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="10">
         <f t="shared" si="2"/>
         <v>93.030550000000005</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="10">
         <f t="shared" si="3"/>
         <v>136.6465</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="10">
         <f t="shared" si="4"/>
         <v>110.18494</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="10">
         <f t="shared" si="5"/>
         <v>145.19002</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="10">
         <f t="shared" si="6"/>
         <v>73.034660000000002</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="10">
         <f t="shared" si="7"/>
         <v>111.29832000000002</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="10">
         <f t="shared" si="8"/>
         <v>101.43912</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="10">
         <f t="shared" si="9"/>
         <v>137.2116</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="10">
         <f t="shared" si="10"/>
         <v>64.883719999999997</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="10">
         <f t="shared" si="11"/>
         <v>104.25552</v>
       </c>
@@ -7832,51 +7822,51 @@
       <c r="B21" s="6">
         <v>9000</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="10">
         <f t="shared" si="0"/>
         <v>143.48263</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="10">
         <f t="shared" si="12"/>
         <v>184.40716</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="10">
         <f t="shared" si="2"/>
         <v>98.485550000000003</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="10">
         <f t="shared" si="3"/>
         <v>144.66149999999999</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="10">
         <f t="shared" si="4"/>
         <v>116.64493999999999</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="10">
         <f t="shared" si="5"/>
         <v>153.70502000000002</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="10">
         <f t="shared" si="6"/>
         <v>77.314659999999989</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="10">
         <f t="shared" si="7"/>
         <v>117.82332000000001</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="10">
         <f t="shared" si="8"/>
         <v>107.38412</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="10">
         <f t="shared" si="9"/>
         <v>145.25659999999999</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="10">
         <f t="shared" si="10"/>
         <v>68.683720000000008</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="10">
         <f t="shared" si="11"/>
         <v>110.36552</v>
       </c>
@@ -7885,51 +7875,51 @@
       <c r="B22" s="6">
         <v>9500</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="10">
         <f t="shared" si="0"/>
         <v>151.43263000000002</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="10">
         <f t="shared" si="12"/>
         <v>194.62716</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="10">
         <f t="shared" si="2"/>
         <v>103.94055</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="10">
         <f t="shared" si="3"/>
         <v>152.6765</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="10">
         <f t="shared" si="4"/>
         <v>123.10494</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="10">
         <f t="shared" si="5"/>
         <v>162.22002000000001</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="10">
         <f t="shared" si="6"/>
         <v>81.59465999999999</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="10">
         <f t="shared" si="7"/>
         <v>124.34832000000002</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="10">
         <f t="shared" si="8"/>
         <v>113.32912</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="10">
         <f t="shared" si="9"/>
         <v>153.30159999999998</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="10">
         <f t="shared" si="10"/>
         <v>72.483720000000005</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="10">
         <f t="shared" si="11"/>
         <v>116.47552</v>
       </c>
@@ -7938,51 +7928,51 @@
       <c r="B23" s="8">
         <v>10000</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="11">
         <f t="shared" si="0"/>
         <v>159.38263000000001</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="11">
         <f t="shared" si="12"/>
         <v>204.84716</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="11">
         <f t="shared" si="2"/>
         <v>109.39555</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="11">
         <f t="shared" si="3"/>
         <v>160.69149999999999</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="11">
         <f t="shared" si="4"/>
         <v>129.56493999999998</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="11">
         <f t="shared" si="5"/>
         <v>170.73502000000002</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="11">
         <f t="shared" si="6"/>
         <v>85.874659999999992</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="11">
         <f t="shared" si="7"/>
         <v>130.87332000000001</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="11">
         <f t="shared" si="8"/>
         <v>119.27412</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="11">
         <f t="shared" si="9"/>
         <v>161.3466</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="11">
         <f t="shared" si="10"/>
         <v>76.283720000000002</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="11">
         <f t="shared" si="11"/>
         <v>122.58552</v>
       </c>
